--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
-    <t>Akun Gitter</t>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Room Gitter</t>
+  </si>
+  <si>
+    <t>psikoweb30/Lobby</t>
+  </si>
+  <si>
+    <t>psikoweb30/kucing</t>
+  </si>
+  <si>
+    <t>psikoweb30/kenangan</t>
   </si>
 </sst>
 </file>
@@ -962,17 +974,48 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="7.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>Nomor</t>
   </si>
@@ -22,13 +22,25 @@
     <t>Room Gitter</t>
   </si>
   <si>
-    <t>psikoweb30/Lobby</t>
+    <t>Link</t>
   </si>
   <si>
     <t>psikoweb30/kucing</t>
   </si>
   <si>
     <t>psikoweb30/kenangan</t>
+  </si>
+  <si>
+    <t>psikoweb30/kuliah</t>
+  </si>
+  <si>
+    <t>psikoweb30/kelembutan</t>
+  </si>
+  <si>
+    <t>psikoweb30/kekuatan</t>
+  </si>
+  <si>
+    <t>psikoweb30/senyuman</t>
   </si>
 </sst>
 </file>
@@ -652,8 +664,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -974,24 +989,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="7.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -999,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1007,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1015,7 +1033,151 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -14,33 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>Nomor</t>
   </si>
   <si>
-    <t>Room Gitter</t>
+    <t>Room Gitter (psikoweb30/$room)</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>psikoweb30/kucing</t>
-  </si>
-  <si>
-    <t>psikoweb30/kenangan</t>
-  </si>
-  <si>
-    <t>psikoweb30/kuliah</t>
-  </si>
-  <si>
-    <t>psikoweb30/kelembutan</t>
-  </si>
-  <si>
-    <t>psikoweb30/kekuatan</t>
-  </si>
-  <si>
-    <t>psikoweb30/senyuman</t>
+    <t>kucing</t>
+  </si>
+  <si>
+    <t>kenangan</t>
+  </si>
+  <si>
+    <t>kuliah</t>
+  </si>
+  <si>
+    <t>kelembutan</t>
+  </si>
+  <si>
+    <t>kekuatan</t>
+  </si>
+  <si>
+    <t>senyuman</t>
+  </si>
+  <si>
+    <t>keadilan</t>
+  </si>
+  <si>
+    <t>kesepian</t>
+  </si>
+  <si>
+    <t>mulia</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>hampa</t>
+  </si>
+  <si>
+    <t>ketertiban</t>
   </si>
 </sst>
 </file>
@@ -992,13 +1010,13 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="7.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="25.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="34.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1060,34 +1078,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">

--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="15255" windowHeight="5445"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Akun Gitter" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>Nomor</t>
   </si>
@@ -59,6 +59,30 @@
   </si>
   <si>
     <t>ketertiban</t>
+  </si>
+  <si>
+    <t>bisa</t>
+  </si>
+  <si>
+    <t>setia</t>
+  </si>
+  <si>
+    <t>teliti</t>
+  </si>
+  <si>
+    <t>fokus</t>
+  </si>
+  <si>
+    <t>mimpi</t>
+  </si>
+  <si>
+    <t>keteguhan</t>
+  </si>
+  <si>
+    <t>bola</t>
+  </si>
+  <si>
+    <t>piano</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1033,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1126,44 +1150,68 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">

--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="15255" windowHeight="5445"/>
   </bookViews>
   <sheets>
-    <sheet name="Akun Gitter" sheetId="1" r:id="rId1"/>
+    <sheet name="Room Gitter" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>Nomor</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>piano</t>
+  </si>
+  <si>
+    <t>tangkas</t>
+  </si>
+  <si>
+    <t>nasi</t>
+  </si>
+  <si>
+    <t>tidur</t>
+  </si>
+  <si>
+    <t>zen</t>
+  </si>
+  <si>
+    <t>psikologi</t>
+  </si>
+  <si>
+    <t>humanistik</t>
+  </si>
+  <si>
+    <t>psikoanalisa</t>
+  </si>
+  <si>
+    <t>behavior</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1057,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -1214,44 +1238,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Nomor</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Room Gitter (psikoweb30/$room)</t>
   </si>
   <si>
-    <t>Link</t>
+    <t>Link (psikoweb.github.io/$link)</t>
   </si>
   <si>
     <t>kucing</t>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>behavior</t>
+  </si>
+  <si>
+    <t>lari</t>
+  </si>
+  <si>
+    <t>hamster</t>
   </si>
 </sst>
 </file>
@@ -1057,14 +1063,15 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="7.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="34.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="31.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1302,14 +1309,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/administrasi/akun.xlsx
+++ b/administrasi/akun.xlsx
@@ -28,6 +28,9 @@
     <t>kucing</t>
   </si>
   <si>
+    <t>zen</t>
+  </si>
+  <si>
     <t>kenangan</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>tidur</t>
-  </si>
-  <si>
-    <t>zen</t>
   </si>
   <si>
     <t>psikologi</t>
@@ -1085,12 +1085,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1098,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1106,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1114,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1122,7 +1125,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1130,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1138,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1146,7 +1149,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1154,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1162,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1170,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1178,7 +1181,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1186,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1194,7 +1197,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1202,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1210,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1218,7 +1221,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1226,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1234,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1242,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1250,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1258,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1266,7 +1269,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1274,7 +1277,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2">
